--- a/Code/Results/Cases/Case_4_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.197297995592066</v>
+        <v>5.807494584125266</v>
       </c>
       <c r="C2">
-        <v>1.871055504784863</v>
+        <v>0.7062961560329768</v>
       </c>
       <c r="D2">
-        <v>0.2031069173730913</v>
+        <v>0.07600777982561624</v>
       </c>
       <c r="E2">
-        <v>0.01468661452214004</v>
+        <v>0.01739878643989634</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007831654828607231</v>
+        <v>0.002637015469981312</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4658437264053958</v>
+        <v>0.3498838686687975</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.069079589273798</v>
+        <v>3.80890238265917</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.938474475033274</v>
+        <v>5.562066824044734</v>
       </c>
       <c r="C3">
-        <v>1.591560302196456</v>
+        <v>0.6448770912427335</v>
       </c>
       <c r="D3">
-        <v>0.1728673513886747</v>
+        <v>0.06929318894320602</v>
       </c>
       <c r="E3">
-        <v>0.01324644702161937</v>
+        <v>0.01702221701724671</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008016253721879271</v>
+        <v>0.0026469214176816</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.405008861555217</v>
+        <v>0.3386790311696757</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.790594410028774</v>
+        <v>3.723955635705124</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.199540872357147</v>
+        <v>5.415710663929815</v>
       </c>
       <c r="C4">
-        <v>1.427165352303348</v>
+        <v>0.6076830267203377</v>
       </c>
       <c r="D4">
-        <v>0.1550567212012481</v>
+        <v>0.06522548548886675</v>
       </c>
       <c r="E4">
-        <v>0.01240292858309822</v>
+        <v>0.01678808838690937</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008130406600984724</v>
+        <v>0.002653304275436961</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3693241846680024</v>
+        <v>0.3320503415256155</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.626646709494139</v>
+        <v>3.672218710653596</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.905541464881594</v>
+        <v>5.357142615910789</v>
       </c>
       <c r="C5">
-        <v>1.361663201961392</v>
+        <v>0.5926520124864396</v>
       </c>
       <c r="D5">
-        <v>0.1479551905579086</v>
+        <v>0.06358125906319856</v>
       </c>
       <c r="E5">
-        <v>0.01206721851184955</v>
+        <v>0.0166919173938096</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008177242980435223</v>
+        <v>0.002655981281615113</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3551341206593719</v>
+        <v>0.3294114350602797</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.561326467513368</v>
+        <v>3.65123677361214</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.857116009878894</v>
+        <v>5.347481758104891</v>
       </c>
       <c r="C6">
-        <v>1.350868158322442</v>
+        <v>0.5901636034387252</v>
       </c>
       <c r="D6">
-        <v>0.1467845527348572</v>
+        <v>0.06330903246255559</v>
       </c>
       <c r="E6">
-        <v>0.0120119021022207</v>
+        <v>0.01667590143106334</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008185042347737281</v>
+        <v>0.002656430393612655</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3527973425004376</v>
+        <v>0.328976988467943</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.550562685559981</v>
+        <v>3.647758725239783</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.195548768271181</v>
+        <v>5.414916471800609</v>
       </c>
       <c r="C7">
-        <v>1.426276323038792</v>
+        <v>0.6074798091291882</v>
       </c>
       <c r="D7">
-        <v>0.1549603546290115</v>
+        <v>0.06520325723214171</v>
       </c>
       <c r="E7">
-        <v>0.01239837119230636</v>
+        <v>0.01678679451340948</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008131036826354311</v>
+        <v>0.002653340070574985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3691314698273231</v>
+        <v>0.3320145009580671</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.625760085060762</v>
+        <v>3.671935336756832</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.755262679487601</v>
+        <v>5.721960157234776</v>
       </c>
       <c r="C8">
-        <v>1.772973783315933</v>
+        <v>0.6850088497817524</v>
       </c>
       <c r="D8">
-        <v>0.1925010131176208</v>
+        <v>0.07368087774500509</v>
       </c>
       <c r="E8">
-        <v>0.01418010973314932</v>
+        <v>0.01726953226483374</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007895212311266158</v>
+        <v>0.00264036887654831</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4444770579244874</v>
+        <v>0.3459678222941562</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.971411369619375</v>
+        <v>3.779522664776721</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.16446170695724</v>
+        <v>6.359327038464244</v>
       </c>
       <c r="C9">
-        <v>2.528607616183194</v>
+        <v>0.8413524699259938</v>
       </c>
       <c r="D9">
-        <v>0.2740424497154095</v>
+        <v>0.09076427000651677</v>
       </c>
       <c r="E9">
-        <v>0.01812741580661381</v>
+        <v>0.01819442570346919</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007432670613563862</v>
+        <v>0.002617300719547358</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6093019806012592</v>
+        <v>0.3753619521917102</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.720958936677448</v>
+        <v>3.994055139814066</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.03418446639989</v>
+        <v>6.850334258304656</v>
       </c>
       <c r="C10">
-        <v>3.164738371607939</v>
+        <v>0.9591435908566268</v>
       </c>
       <c r="D10">
-        <v>0.3423763341187112</v>
+        <v>0.1036270563958368</v>
       </c>
       <c r="E10">
-        <v>0.02155713710498119</v>
+        <v>0.01886265003681142</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007080654776411967</v>
+        <v>0.002601773013958246</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7479492176881308</v>
+        <v>0.3982544958580974</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.344697015080158</v>
+        <v>4.154155626409192</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.47015781132359</v>
+        <v>7.078923933356236</v>
       </c>
       <c r="C11">
-        <v>3.483577135107055</v>
+        <v>1.013432339139001</v>
       </c>
       <c r="D11">
-        <v>0.3765113245464704</v>
+        <v>0.1095535314171201</v>
       </c>
       <c r="E11">
-        <v>0.0233229251115894</v>
+        <v>0.01916463100381272</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006913766736112923</v>
+        <v>0.002595012442081855</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8172396720821951</v>
+        <v>0.4089636625303399</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.654122955528635</v>
+        <v>4.227599514158783</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.03915682171373</v>
+        <v>7.16625941638506</v>
       </c>
       <c r="C12">
-        <v>3.610056876648855</v>
+        <v>1.034096895793539</v>
       </c>
       <c r="D12">
-        <v>0.3900298796885977</v>
+        <v>0.1118091182229932</v>
       </c>
       <c r="E12">
-        <v>0.02403309755131922</v>
+        <v>0.01927873228002142</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006849081831995858</v>
+        <v>0.002592495570919111</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8446746633098599</v>
+        <v>0.4130624651136827</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.776215181158079</v>
+        <v>4.255504596899073</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91535877629724</v>
+        <v>7.147415400655404</v>
       </c>
       <c r="C13">
-        <v>3.582530924529124</v>
+        <v>1.029641588725383</v>
       </c>
       <c r="D13">
-        <v>0.3870889258722769</v>
+        <v>0.1113228230123298</v>
       </c>
       <c r="E13">
-        <v>0.02387805321938252</v>
+        <v>0.01925416918629708</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000686308962867544</v>
+        <v>0.00259303570809154</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8387066940678949</v>
+        <v>0.4121777645559064</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.749676708960862</v>
+        <v>4.249490495416467</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.5164176295043</v>
+        <v>7.086093446298264</v>
       </c>
       <c r="C14">
-        <v>3.493856736882151</v>
+        <v>1.015130258106751</v>
       </c>
       <c r="D14">
-        <v>0.3776105241893504</v>
+        <v>0.1097388689994858</v>
       </c>
       <c r="E14">
-        <v>0.02338043168929183</v>
+        <v>0.01917402303860971</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006908478612785888</v>
+        <v>0.002594804513667308</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8194706239555956</v>
+        <v>0.4092999962518036</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.664060176715509</v>
+        <v>4.229893378088377</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.2755760949118</v>
+        <v>7.048633372842232</v>
       </c>
       <c r="C15">
-        <v>3.440344299777109</v>
+        <v>1.006255687015198</v>
       </c>
       <c r="D15">
-        <v>0.3718875019731911</v>
+        <v>0.1087701475276361</v>
       </c>
       <c r="E15">
-        <v>0.02308147504612279</v>
+        <v>0.01912489939663953</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006936067989926167</v>
+        <v>0.002595893574391717</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8078547700087029</v>
+        <v>0.407542972435607</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.6123028815976</v>
+        <v>4.217901909768557</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.94346333777582</v>
+        <v>6.835502430445558</v>
       </c>
       <c r="C16">
-        <v>3.144609951615223</v>
+        <v>0.9556103214083009</v>
       </c>
       <c r="D16">
-        <v>0.3402187262155252</v>
+        <v>0.1032413062556543</v>
       </c>
       <c r="E16">
-        <v>0.02144678367741637</v>
+        <v>0.01884287763355008</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007091385652812524</v>
+        <v>0.002602220900081219</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7435693148985223</v>
+        <v>0.397560653874848</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.32508661967978</v>
+        <v>4.149368686449151</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.16355378978301</v>
+        <v>6.706107784943697</v>
       </c>
       <c r="C17">
-        <v>2.971631630735828</v>
+        <v>0.9247252514278443</v>
       </c>
       <c r="D17">
-        <v>0.3216641472278496</v>
+        <v>0.0998691740299904</v>
       </c>
       <c r="E17">
-        <v>0.02050363120936893</v>
+        <v>0.01866937929537027</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007184628618976701</v>
+        <v>0.002606179868431199</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7059063517548765</v>
+        <v>0.3915131561434748</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.156204073282368</v>
+        <v>4.107486589398945</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.72675959362266</v>
+        <v>6.632174152206858</v>
       </c>
       <c r="C18">
-        <v>2.87479593479145</v>
+        <v>0.9070270109802436</v>
       </c>
       <c r="D18">
-        <v>0.3112672572705577</v>
+        <v>0.0979366500476857</v>
       </c>
       <c r="E18">
-        <v>0.01997957206539347</v>
+        <v>0.01856939746730024</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007237663470767802</v>
+        <v>0.002608485509978054</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6848058343688876</v>
+        <v>0.3880625212545254</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.061390978574536</v>
+        <v>4.083454526232003</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.58073451527832</v>
+        <v>6.607225128779305</v>
       </c>
       <c r="C19">
-        <v>2.842428427704476</v>
+        <v>0.9010458761534323</v>
       </c>
       <c r="D19">
-        <v>0.3077905345120939</v>
+        <v>0.09728352262142437</v>
       </c>
       <c r="E19">
-        <v>0.01980501099173448</v>
+        <v>0.01853551162907774</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007255530498997281</v>
+        <v>0.002609271074863502</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.6777506784364675</v>
+        <v>0.3868989269950305</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.029657696574532</v>
+        <v>4.075327384154662</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.2453173056175</v>
+        <v>6.719831120237131</v>
       </c>
       <c r="C20">
-        <v>2.989761411943164</v>
+        <v>0.9280061482218684</v>
       </c>
       <c r="D20">
-        <v>0.3236099003517268</v>
+        <v>0.1002274109525274</v>
       </c>
       <c r="E20">
-        <v>0.02060205452292152</v>
+        <v>0.01868786792209054</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007174767556817831</v>
+        <v>0.002605755477666675</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.7098556208464402</v>
+        <v>0.3921540458008508</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.173933975137004</v>
+        <v>4.111939030446223</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63284695544587</v>
+        <v>7.104084020508481</v>
       </c>
       <c r="C21">
-        <v>3.51973150882452</v>
+        <v>1.019389652672601</v>
       </c>
       <c r="D21">
-        <v>0.3803769414397919</v>
+        <v>0.1102038018897957</v>
       </c>
       <c r="E21">
-        <v>0.0235253463878351</v>
+        <v>0.0191975704710412</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006895192332289503</v>
+        <v>0.002594283802867501</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8250852421657839</v>
+        <v>0.4101440784133956</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.689062084773127</v>
+        <v>4.235646946941074</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34551563726484</v>
+        <v>7.359734842183343</v>
       </c>
       <c r="C22">
-        <v>3.90079930258554</v>
+        <v>1.079737848658908</v>
       </c>
       <c r="D22">
-        <v>0.4210552057571562</v>
+        <v>0.1167904306106493</v>
       </c>
       <c r="E22">
-        <v>0.02568800203919785</v>
+        <v>0.01952923650006433</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006703380815384584</v>
+        <v>0.002587038091210852</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9076102920255664</v>
+        <v>0.4221554989326819</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.055387086110215</v>
+        <v>4.317044606242803</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.41458881256381</v>
+        <v>7.222868300862842</v>
       </c>
       <c r="C23">
-        <v>3.693559398643629</v>
+        <v>1.047470041606346</v>
       </c>
       <c r="D23">
-        <v>0.3989477252143985</v>
+        <v>0.11326875202775</v>
       </c>
       <c r="E23">
-        <v>0.02450513476653526</v>
+        <v>0.01935234135543062</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006806819237759478</v>
+        <v>0.002590882356724222</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8627693150348819</v>
+        <v>0.4157212009307614</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.856609415479113</v>
+        <v>4.273549284373246</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.20831637912488</v>
+        <v>6.71362537830862</v>
       </c>
       <c r="C24">
-        <v>2.981556906724791</v>
+        <v>0.9265226745243922</v>
       </c>
       <c r="D24">
-        <v>0.3227293938329581</v>
+        <v>0.1000654328958177</v>
       </c>
       <c r="E24">
-        <v>0.02055750156017488</v>
+        <v>0.01867950994953471</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007179227489586558</v>
+        <v>0.002605947252452842</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7080684565597011</v>
+        <v>0.3918642182050718</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.16591127075344</v>
+        <v>4.109925937370747</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.19152721727835</v>
+        <v>6.183001964177492</v>
       </c>
       <c r="C25">
-        <v>2.313070477502322</v>
+        <v>0.7985656693661554</v>
       </c>
       <c r="D25">
-        <v>0.2508233244823401</v>
+        <v>0.08609039293601484</v>
       </c>
       <c r="E25">
-        <v>0.01698958689309027</v>
+        <v>0.01794634616326274</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007558863726354859</v>
+        <v>0.002623290125233198</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5622636739675499</v>
+        <v>0.3671866527062377</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.507949951378947</v>
+        <v>3.935605542588775</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_137/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_137/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.807494584125266</v>
+        <v>9.197297995592066</v>
       </c>
       <c r="C2">
-        <v>0.7062961560329768</v>
+        <v>1.871055504784579</v>
       </c>
       <c r="D2">
-        <v>0.07600777982561624</v>
+        <v>0.2031069173735602</v>
       </c>
       <c r="E2">
-        <v>0.01739878643989634</v>
+        <v>0.01468661452215247</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002637015469981312</v>
+        <v>0.0007831654827581414</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3498838686687975</v>
+        <v>0.465843726405339</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.80890238265917</v>
+        <v>4.069079589273827</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.562066824044734</v>
+        <v>7.938474475033331</v>
       </c>
       <c r="C3">
-        <v>0.6448770912427335</v>
+        <v>1.591560302196285</v>
       </c>
       <c r="D3">
-        <v>0.06929318894320602</v>
+        <v>0.17286735138849</v>
       </c>
       <c r="E3">
-        <v>0.01702221701724671</v>
+        <v>0.01324644702163535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0026469214176816</v>
+        <v>0.0008016253720948572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3386790311696757</v>
+        <v>0.405008861555288</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.723955635705124</v>
+        <v>3.790594410028746</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.415710663929815</v>
+        <v>7.199540872357034</v>
       </c>
       <c r="C4">
-        <v>0.6076830267203377</v>
+        <v>1.427165352303177</v>
       </c>
       <c r="D4">
-        <v>0.06522548548886675</v>
+        <v>0.1550567212012481</v>
       </c>
       <c r="E4">
-        <v>0.01678808838690937</v>
+        <v>0.01240292858318615</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002653304275436961</v>
+        <v>0.0008130406598930719</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3320503415256155</v>
+        <v>0.3693241846680451</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.672218710653596</v>
+        <v>3.626646709494139</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.357142615910789</v>
+        <v>6.90554146488148</v>
       </c>
       <c r="C5">
-        <v>0.5926520124864396</v>
+        <v>1.36166320196179</v>
       </c>
       <c r="D5">
-        <v>0.06358125906319856</v>
+        <v>0.1479551905578944</v>
       </c>
       <c r="E5">
-        <v>0.0166919173938096</v>
+        <v>0.01206721851183978</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002655981281615113</v>
+        <v>0.0008177242978878514</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3294114350602797</v>
+        <v>0.3551341206593435</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.65123677361214</v>
+        <v>3.561326467513339</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.347481758104891</v>
+        <v>6.857116009878894</v>
       </c>
       <c r="C6">
-        <v>0.5901636034387252</v>
+        <v>1.350868158322498</v>
       </c>
       <c r="D6">
-        <v>0.06330903246255559</v>
+        <v>0.1467845527348715</v>
       </c>
       <c r="E6">
-        <v>0.01667590143106334</v>
+        <v>0.01201190210224734</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002656430393612655</v>
+        <v>0.0008185042346841424</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.328976988467943</v>
+        <v>0.3527973425004944</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.647758725239783</v>
+        <v>3.55056268556001</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.414916471800609</v>
+        <v>7.195548768270953</v>
       </c>
       <c r="C7">
-        <v>0.6074798091291882</v>
+        <v>1.426276323038564</v>
       </c>
       <c r="D7">
-        <v>0.06520325723214171</v>
+        <v>0.1549603546288694</v>
       </c>
       <c r="E7">
-        <v>0.01678679451340948</v>
+        <v>0.01239837119228238</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002653340070574985</v>
+        <v>0.0008131036825996742</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3320145009580671</v>
+        <v>0.3691314698275221</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.671935336756832</v>
+        <v>3.62576008506079</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.721960157234776</v>
+        <v>8.755262679487259</v>
       </c>
       <c r="C8">
-        <v>0.6850088497817524</v>
+        <v>1.772973783315535</v>
       </c>
       <c r="D8">
-        <v>0.07368087774500509</v>
+        <v>0.192501013117834</v>
       </c>
       <c r="E8">
-        <v>0.01726953226483374</v>
+        <v>0.01418010973315287</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00264036887654831</v>
+        <v>0.0007895212311294688</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3459678222941562</v>
+        <v>0.4444770579245159</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.779522664776721</v>
+        <v>3.971411369619375</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.359327038464244</v>
+        <v>12.1644617069569</v>
       </c>
       <c r="C9">
-        <v>0.8413524699259938</v>
+        <v>2.528607616183535</v>
       </c>
       <c r="D9">
-        <v>0.09076427000651677</v>
+        <v>0.2740424497159211</v>
       </c>
       <c r="E9">
-        <v>0.01819442570346919</v>
+        <v>0.01812741580658006</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002617300719547358</v>
+        <v>0.0007432670611409348</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3753619521917102</v>
+        <v>0.6093019806011455</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.994055139814066</v>
+        <v>4.720958936677334</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.850334258304656</v>
+        <v>15.03418446639967</v>
       </c>
       <c r="C10">
-        <v>0.9591435908566268</v>
+        <v>3.164738371606973</v>
       </c>
       <c r="D10">
-        <v>0.1036270563958368</v>
+        <v>0.3423763341187822</v>
       </c>
       <c r="E10">
-        <v>0.01886265003681142</v>
+        <v>0.02155713710492702</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002601773013958246</v>
+        <v>0.000708065477535808</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3982544958580974</v>
+        <v>0.7479492176882445</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.154155626409192</v>
+        <v>5.344697015080214</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.078923933356236</v>
+        <v>16.47015781132359</v>
       </c>
       <c r="C11">
-        <v>1.013432339139001</v>
+        <v>3.483577135107168</v>
       </c>
       <c r="D11">
-        <v>0.1095535314171201</v>
+        <v>0.3765113245462288</v>
       </c>
       <c r="E11">
-        <v>0.01916463100381272</v>
+        <v>0.02332292511159473</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002595012442081855</v>
+        <v>0.0006913766737173965</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4089636625303399</v>
+        <v>0.8172396720820814</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.227599514158783</v>
+        <v>5.654122955528692</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.16625941638506</v>
+        <v>17.03915682171396</v>
       </c>
       <c r="C12">
-        <v>1.034096895793539</v>
+        <v>3.610056876648855</v>
       </c>
       <c r="D12">
-        <v>0.1118091182229932</v>
+        <v>0.3900298796888819</v>
       </c>
       <c r="E12">
-        <v>0.01927873228002142</v>
+        <v>0.02403309755123928</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002592495570919111</v>
+        <v>0.0006849081834740386</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4130624651136827</v>
+        <v>0.8446746633096609</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.255504596899073</v>
+        <v>5.776215181158136</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.147415400655404</v>
+        <v>16.91535877629713</v>
       </c>
       <c r="C13">
-        <v>1.029641588725383</v>
+        <v>3.582530924528783</v>
       </c>
       <c r="D13">
-        <v>0.1113228230123298</v>
+        <v>0.387088925871808</v>
       </c>
       <c r="E13">
-        <v>0.01925416918629708</v>
+        <v>0.02387805321938075</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00259303570809154</v>
+        <v>0.0006863089629693387</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4121777645559064</v>
+        <v>0.8387066940679802</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.249490495416467</v>
+        <v>5.749676708960919</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.086093446298264</v>
+        <v>16.51641762950396</v>
       </c>
       <c r="C14">
-        <v>1.015130258106751</v>
+        <v>3.493856736882151</v>
       </c>
       <c r="D14">
-        <v>0.1097388689994858</v>
+        <v>0.3776105241894214</v>
       </c>
       <c r="E14">
-        <v>0.01917402303860971</v>
+        <v>0.0233804316892634</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002594804513667308</v>
+        <v>0.0006908478614198145</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4092999962518036</v>
+        <v>0.8194706239555671</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.229893378088377</v>
+        <v>5.664060176715395</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.048633372842232</v>
+        <v>16.27557609491214</v>
       </c>
       <c r="C15">
-        <v>1.006255687015198</v>
+        <v>3.440344299777678</v>
       </c>
       <c r="D15">
-        <v>0.1087701475276361</v>
+        <v>0.3718875019726937</v>
       </c>
       <c r="E15">
-        <v>0.01912489939663953</v>
+        <v>0.02308147504620628</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002595893574391717</v>
+        <v>0.0006936067992160168</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.407542972435607</v>
+        <v>0.807854770008845</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.217901909768557</v>
+        <v>5.612302881597714</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.835502430445558</v>
+        <v>14.9434633377756</v>
       </c>
       <c r="C16">
-        <v>0.9556103214083009</v>
+        <v>3.144609951615678</v>
       </c>
       <c r="D16">
-        <v>0.1032413062556543</v>
+        <v>0.3402187262153404</v>
       </c>
       <c r="E16">
-        <v>0.01884287763355008</v>
+        <v>0.02144678367729913</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002602220900081219</v>
+        <v>0.0007091385656525926</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.397560653874848</v>
+        <v>0.7435693148984512</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.149368686449151</v>
+        <v>5.325086619679666</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.706107784943697</v>
+        <v>14.16355378978301</v>
       </c>
       <c r="C17">
-        <v>0.9247252514278443</v>
+        <v>2.971631630735828</v>
       </c>
       <c r="D17">
-        <v>0.0998691740299904</v>
+        <v>0.321664147227736</v>
       </c>
       <c r="E17">
-        <v>0.01866937929537027</v>
+        <v>0.02050363120929521</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002606179868431199</v>
+        <v>0.000718462861993142</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3915131561434748</v>
+        <v>0.7059063517549902</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4.107486589398945</v>
+        <v>5.156204073282368</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.632174152206858</v>
+        <v>13.72675959362311</v>
       </c>
       <c r="C18">
-        <v>0.9070270109802436</v>
+        <v>2.874795934791337</v>
       </c>
       <c r="D18">
-        <v>0.0979366500476857</v>
+        <v>0.3112672572705151</v>
       </c>
       <c r="E18">
-        <v>0.01856939746730024</v>
+        <v>0.01997957206538192</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002608485509978054</v>
+        <v>0.0007237663472847675</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3880625212545254</v>
+        <v>0.6848058343687313</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>4.083454526232003</v>
+        <v>5.061390978574593</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.607225128779305</v>
+        <v>13.5807345152781</v>
       </c>
       <c r="C19">
-        <v>0.9010458761534323</v>
+        <v>2.842428427704931</v>
       </c>
       <c r="D19">
-        <v>0.09728352262142437</v>
+        <v>0.3077905345123781</v>
       </c>
       <c r="E19">
-        <v>0.01853551162907774</v>
+        <v>0.01980501099163678</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002609271074863502</v>
+        <v>0.0007255530499112047</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3868989269950305</v>
+        <v>0.677750678436368</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4.075327384154662</v>
+        <v>5.02965769657456</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.719831120237131</v>
+        <v>14.24531730561716</v>
       </c>
       <c r="C20">
-        <v>0.9280061482218684</v>
+        <v>2.98976141194305</v>
       </c>
       <c r="D20">
-        <v>0.1002274109525274</v>
+        <v>0.3236099003520536</v>
       </c>
       <c r="E20">
-        <v>0.01868786792209054</v>
+        <v>0.02060205452300412</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002605755477666675</v>
+        <v>0.0007174767556962917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3921540458008508</v>
+        <v>0.7098556208464686</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4.111939030446223</v>
+        <v>5.17393397513689</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.104084020508481</v>
+        <v>16.63284695544598</v>
       </c>
       <c r="C21">
-        <v>1.019389652672601</v>
+        <v>3.519731508824634</v>
       </c>
       <c r="D21">
-        <v>0.1102038018897957</v>
+        <v>0.3803769414395504</v>
       </c>
       <c r="E21">
-        <v>0.0191975704710412</v>
+        <v>0.02352534638784753</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002594283802867501</v>
+        <v>0.0006895192332188635</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4101440784133956</v>
+        <v>0.8250852421660397</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.235646946941074</v>
+        <v>5.689062084773127</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.359734842183343</v>
+        <v>18.3455156372645</v>
       </c>
       <c r="C22">
-        <v>1.079737848658908</v>
+        <v>3.900799302586506</v>
       </c>
       <c r="D22">
-        <v>0.1167904306106493</v>
+        <v>0.4210552057577814</v>
       </c>
       <c r="E22">
-        <v>0.01952923650006433</v>
+        <v>0.02568800203923338</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002587038091210852</v>
+        <v>0.0006703380814140288</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4221554989326819</v>
+        <v>0.9076102920257085</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.317044606242803</v>
+        <v>6.055387086110215</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.222868300862842</v>
+        <v>17.41458881256301</v>
       </c>
       <c r="C23">
-        <v>1.047470041606346</v>
+        <v>3.693559398643686</v>
       </c>
       <c r="D23">
-        <v>0.11326875202775</v>
+        <v>0.3989477252146969</v>
       </c>
       <c r="E23">
-        <v>0.01935234135543062</v>
+        <v>0.02450513476645533</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002590882356724222</v>
+        <v>0.0006806819236749395</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4157212009307614</v>
+        <v>0.8627693150347113</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.273549284373246</v>
+        <v>5.856609415479113</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.71362537830862</v>
+        <v>14.20831637912477</v>
       </c>
       <c r="C24">
-        <v>0.9265226745243922</v>
+        <v>2.981556906725075</v>
       </c>
       <c r="D24">
-        <v>0.1000654328958177</v>
+        <v>0.3227293938327875</v>
       </c>
       <c r="E24">
-        <v>0.01867950994953471</v>
+        <v>0.0205575015600834</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002605947252452842</v>
+        <v>0.0007179227488640648</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3918642182050718</v>
+        <v>0.7080684565600421</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4.109925937370747</v>
+        <v>5.165911270753497</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.183001964177492</v>
+        <v>11.19152721727869</v>
       </c>
       <c r="C25">
-        <v>0.7985656693661554</v>
+        <v>2.313070477501469</v>
       </c>
       <c r="D25">
-        <v>0.08609039293601484</v>
+        <v>0.250823324482127</v>
       </c>
       <c r="E25">
-        <v>0.01794634616326274</v>
+        <v>0.01698958689308938</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002623290125233198</v>
+        <v>0.0007558863725208244</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3671866527062377</v>
+        <v>0.5622636739676352</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.935605542588775</v>
+        <v>4.507949951378947</v>
       </c>
       <c r="O25">
         <v>0</v>
